--- a/data/trans_orig/P80_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P80_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>557478</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>547066</v>
+        <v>546926</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>565760</v>
+        <v>565329</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9636133773244698</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9456157407745587</v>
+        <v>0.9453730201811112</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9779288113936641</v>
+        <v>0.9771835098999198</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1414</v>
@@ -762,19 +762,19 @@
         <v>814161</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>808992</v>
+        <v>809259</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>817049</v>
+        <v>817198</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9929500020489003</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9866448609876557</v>
+        <v>0.9869706682872257</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9964719884576008</v>
+        <v>0.9966537476158097</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2085</v>
@@ -783,19 +783,19 @@
         <v>1371640</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1359846</v>
+        <v>1357832</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1380429</v>
+        <v>1380167</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9808138184737769</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9723804197689773</v>
+        <v>0.9709403957199521</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9870988844588601</v>
+        <v>0.9869115641501249</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>14946</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7766</v>
+        <v>8506</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23897</v>
+        <v>25429</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02583460403660402</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01342350531359765</v>
+        <v>0.01470287038806102</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04130731161394614</v>
+        <v>0.04395537566904267</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -833,19 +833,19 @@
         <v>1798</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4885</v>
+        <v>4857</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.00219298324727486</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0006966448261658517</v>
+        <v>0.0006883589056322724</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.005958198636556591</v>
+        <v>0.005923833073654001</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>17</v>
@@ -854,19 +854,19 @@
         <v>16744</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9949</v>
+        <v>9494</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>27148</v>
+        <v>26509</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01197321708834838</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.007113963262251307</v>
+        <v>0.006788579973472257</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01941291329927523</v>
+        <v>0.01895572616697267</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>4482</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1170</v>
+        <v>1597</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12240</v>
+        <v>11653</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.007748016308111155</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.002022189189435386</v>
+        <v>0.002761300409711426</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02115710170859766</v>
+        <v>0.02014173809007126</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -904,19 +904,19 @@
         <v>1840</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5823</v>
+        <v>5736</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.002243974239624784</v>
+        <v>0.002243974239624785</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0004407859699816774</v>
+        <v>0.0004439378352643716</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.00710205094902149</v>
+        <v>0.006995577737082983</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>7</v>
@@ -925,19 +925,19 @@
         <v>6322</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2686</v>
+        <v>2920</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>14020</v>
+        <v>15039</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.004520925510461497</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001920979698847568</v>
+        <v>0.002087806006646797</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01002504958137113</v>
+        <v>0.01075355688942854</v>
       </c>
     </row>
     <row r="7">
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5059</v>
+        <v>4846</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.001753130978883781</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.006169751978648656</v>
+        <v>0.005910547733767185</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5465</v>
+        <v>4521</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.001027883286252974</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.003907579814474258</v>
+        <v>0.003232529979225155</v>
       </c>
     </row>
     <row r="8">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6181</v>
+        <v>6401</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.002804002330815204</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01068322867060169</v>
+        <v>0.01106467772637851</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2870</v>
+        <v>3497</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0008599094853163725</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.003500765929261237</v>
+        <v>0.004265317035036235</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -1059,19 +1059,19 @@
         <v>2327</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>697</v>
+        <v>499</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>7045</v>
+        <v>6864</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.001664155641160246</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0004985809724981414</v>
+        <v>0.0003569949824447562</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.005037459341020252</v>
+        <v>0.004908475638526705</v>
       </c>
     </row>
     <row r="9">
@@ -1163,19 +1163,19 @@
         <v>2180035</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2161695</v>
+        <v>2157993</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2195648</v>
+        <v>2194584</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9781017430519567</v>
+        <v>0.9781017430519563</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9698732231971011</v>
+        <v>0.9682120394883259</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9851064821345343</v>
+        <v>0.9846291347896831</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2871</v>
@@ -1184,19 +1184,19 @@
         <v>2127618</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2112117</v>
+        <v>2111855</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>2138911</v>
+        <v>2139860</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9818338542704959</v>
+        <v>0.9818338542704956</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.974680599567087</v>
+        <v>0.9745594578256568</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9870451460270179</v>
+        <v>0.9874831864539502</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4829</v>
@@ -1205,19 +1205,19 @@
         <v>4307653</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4283628</v>
+        <v>4281804</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4328457</v>
+        <v>4326858</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9799415391504619</v>
+        <v>0.9799415391504621</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9744761308076297</v>
+        <v>0.9740609731462386</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9846739938105131</v>
+        <v>0.9843103384464947</v>
       </c>
     </row>
     <row r="11">
@@ -1234,19 +1234,19 @@
         <v>24170</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13594</v>
+        <v>13275</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>41756</v>
+        <v>42329</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01084440008511886</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.006099199459897886</v>
+        <v>0.005955780976622418</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01873451514493504</v>
+        <v>0.01899142700816037</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>12</v>
@@ -1255,19 +1255,19 @@
         <v>10856</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5690</v>
+        <v>5508</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>19381</v>
+        <v>18894</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.005009815054930671</v>
+        <v>0.00500981505493067</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.002625567509143066</v>
+        <v>0.002541871195067024</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.008943584093485167</v>
+        <v>0.008719243445078313</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>28</v>
@@ -1276,19 +1276,19 @@
         <v>35027</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>22932</v>
+        <v>23279</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>55899</v>
+        <v>54776</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.007968160298476098</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.005216710315979162</v>
+        <v>0.005295806428409398</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01271631853697586</v>
+        <v>0.0124608464167922</v>
       </c>
     </row>
     <row r="12">
@@ -1305,19 +1305,19 @@
         <v>17223</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8202</v>
+        <v>8577</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>32108</v>
+        <v>30420</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.007727261860336969</v>
+        <v>0.007727261860336967</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.003680092656418083</v>
+        <v>0.003848127628315535</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01440563466161385</v>
+        <v>0.01364818651912112</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>14</v>
@@ -1326,19 +1326,19 @@
         <v>12520</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6460</v>
+        <v>6158</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>22078</v>
+        <v>22610</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.005777705097439736</v>
+        <v>0.005777705097439735</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.002981154751206692</v>
+        <v>0.002841818509019152</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01018849049394921</v>
+        <v>0.0104338922141829</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>25</v>
@@ -1347,19 +1347,19 @@
         <v>29743</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>18853</v>
+        <v>19149</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>46405</v>
+        <v>46458</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.006766200756805047</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.004288929863338023</v>
+        <v>0.004356261399416039</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01055652843085067</v>
+        <v>0.0105686944117171</v>
       </c>
     </row>
     <row r="13">
@@ -1376,19 +1376,19 @@
         <v>6045</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1630</v>
+        <v>1658</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16817</v>
+        <v>17733</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.002712196998592625</v>
+        <v>0.002712196998592624</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0007314091293003103</v>
+        <v>0.0007439886909377688</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.007545109669581691</v>
+        <v>0.007956299230790458</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -1397,19 +1397,19 @@
         <v>2903</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8833</v>
+        <v>10141</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.001339496041976571</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0003200361639249025</v>
+        <v>0.0003219060611932493</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.004076228467216919</v>
+        <v>0.004679775170488248</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -1418,19 +1418,19 @@
         <v>8948</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3887</v>
+        <v>3368</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19254</v>
+        <v>19079</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.002035504982596017</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0008842596055370769</v>
+        <v>0.0007661928929231215</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.004379982875591457</v>
+        <v>0.004340357903548394</v>
       </c>
     </row>
     <row r="14">
@@ -1450,16 +1450,16 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7078</v>
+        <v>6844</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.0006143980039949275</v>
+        <v>0.0006143980039949273</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.003175784721491395</v>
+        <v>0.00307058672464066</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>14</v>
@@ -1468,19 +1468,19 @@
         <v>13087</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7162</v>
+        <v>7060</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>23068</v>
+        <v>22970</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.006039129535157197</v>
+        <v>0.006039129535157196</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003305066330650809</v>
+        <v>0.003258151945553512</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01064537226962885</v>
+        <v>0.01060017849536647</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>15</v>
@@ -1489,19 +1489,19 @@
         <v>14456</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8226</v>
+        <v>7780</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>24250</v>
+        <v>23885</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.003288594811660814</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.00187134222817292</v>
+        <v>0.001769900833590371</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.005516685670833061</v>
+        <v>0.005433563417746775</v>
       </c>
     </row>
     <row r="15">
@@ -1593,19 +1593,19 @@
         <v>701255</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>693580</v>
+        <v>693550</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>706363</v>
+        <v>706151</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.9870320623643837</v>
+        <v>0.9870320623643835</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9762292133354438</v>
+        <v>0.9761871842624672</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9942221929228923</v>
+        <v>0.9939239084100867</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>990</v>
@@ -1614,19 +1614,19 @@
         <v>724143</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>716859</v>
+        <v>717788</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>728462</v>
+        <v>728625</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.9864069083546076</v>
+        <v>0.9864069083546078</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9764847648527126</v>
+        <v>0.9777508635639114</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9922902991886505</v>
+        <v>0.992512032813305</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1661</v>
@@ -1635,19 +1635,19 @@
         <v>1425397</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1415378</v>
+        <v>1415342</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1432448</v>
+        <v>1432456</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9867143671470064</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9797788967234041</v>
+        <v>0.9797542598109297</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9915955974605054</v>
+        <v>0.9916010185184144</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>3112</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8436</v>
+        <v>9212</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.004379744204679354</v>
+        <v>0.004379744204679353</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.001363702945192598</v>
+        <v>0.001360575975362077</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01187372617842613</v>
+        <v>0.01296605988982021</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -1685,19 +1685,19 @@
         <v>6155</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2801</v>
+        <v>2771</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11739</v>
+        <v>12045</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.008384677994112797</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.003815702536905125</v>
+        <v>0.003775185642076251</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0159906906178577</v>
+        <v>0.01640749276637055</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -1706,19 +1706,19 @@
         <v>9267</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4775</v>
+        <v>4891</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>16221</v>
+        <v>16993</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.006414999983126677</v>
+        <v>0.006414999983126678</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.00330512369418338</v>
+        <v>0.003385913750494231</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01122867477929244</v>
+        <v>0.01176328118815401</v>
       </c>
     </row>
     <row r="18">
@@ -1738,16 +1738,16 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6296</v>
+        <v>6207</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.002494423845922932</v>
+        <v>0.002494423845922931</v>
       </c>
       <c r="H18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.008861494217200934</v>
+        <v>0.008736945903395953</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3</v>
@@ -1756,19 +1756,19 @@
         <v>2031</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>5677</v>
+        <v>5478</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.002766672878586732</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0007491306520461435</v>
+        <v>0.0007629639050823401</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.007732391481348136</v>
+        <v>0.007462036572907482</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>5</v>
@@ -1777,19 +1777,19 @@
         <v>3803</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>8699</v>
+        <v>8540</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.002632777298448817</v>
+        <v>0.002632777298448818</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0008332106631566418</v>
+        <v>0.0008310075166969979</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.006021872906394238</v>
+        <v>0.005911698002139658</v>
       </c>
     </row>
     <row r="19">
@@ -1809,16 +1809,16 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7528</v>
+        <v>8661</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.003307925383243482</v>
+        <v>0.003307925383243481</v>
       </c>
       <c r="H19" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01059520011284956</v>
+        <v>0.01219104056630584</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8869</v>
+        <v>7828</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.001626880301129584</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.006139807646784384</v>
+        <v>0.005418769528658272</v>
       </c>
     </row>
     <row r="20">
@@ -1872,16 +1872,16 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7099</v>
+        <v>7564</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.002785844201770605</v>
+        <v>0.002785844201770604</v>
       </c>
       <c r="H20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.009992218916403523</v>
+        <v>0.01064679791753694</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5796</v>
+        <v>6456</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.00244174077269277</v>
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.007894822105479852</v>
+        <v>0.008793904161668684</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -1911,19 +1911,19 @@
         <v>3772</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1084</v>
+        <v>880</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9404</v>
+        <v>9308</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.002610975270288651</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0007506477533016353</v>
+        <v>0.0006092101221415642</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.006509693729303578</v>
+        <v>0.006443101605618475</v>
       </c>
     </row>
     <row r="21">
@@ -2015,19 +2015,19 @@
         <v>3438768</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3413105</v>
+        <v>3413044</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3457029</v>
+        <v>3458084</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9775226251289229</v>
+        <v>0.977522625128923</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9702276027425285</v>
+        <v>0.9702099956534939</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9827135097539009</v>
+        <v>0.9830135690798315</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5275</v>
@@ -2036,19 +2036,19 @@
         <v>3665922</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3649706</v>
+        <v>3649667</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3679045</v>
+        <v>3678535</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.9851855371069358</v>
+        <v>0.9851855371069357</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9808276876737893</v>
+        <v>0.980817148770493</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9887123085216925</v>
+        <v>0.9885753434852971</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>8575</v>
@@ -2057,19 +2057,19 @@
         <v>7104690</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7076442</v>
+        <v>7074824</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>7129025</v>
+        <v>7128023</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.9814616362725425</v>
+        <v>0.9814616362725423</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9775593629519485</v>
+        <v>0.9773358502971893</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9848233329976432</v>
+        <v>0.9846849612719878</v>
       </c>
     </row>
     <row r="23">
@@ -2086,19 +2086,19 @@
         <v>42228</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>29246</v>
+        <v>28760</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>59478</v>
+        <v>61272</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01200401687260353</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.008313746467900944</v>
+        <v>0.008175553770881378</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01690757800707486</v>
+        <v>0.01741747044321608</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>23</v>
@@ -2107,19 +2107,19 @@
         <v>18810</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>11659</v>
+        <v>11399</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>28063</v>
+        <v>28951</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.005054942740815821</v>
+        <v>0.00505494274081582</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.003133290238440785</v>
+        <v>0.003063270516341095</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.00754179068783036</v>
+        <v>0.007780232296479971</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>56</v>
@@ -2128,19 +2128,19 @@
         <v>61038</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>45863</v>
+        <v>44527</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>82109</v>
+        <v>83448</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.008431943942431666</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.006335651142065029</v>
+        <v>0.006151147371320369</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0113427785947575</v>
+        <v>0.011527736034956</v>
       </c>
     </row>
     <row r="24">
@@ -2157,19 +2157,19 @@
         <v>23478</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14249</v>
+        <v>13806</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>38678</v>
+        <v>38253</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.006673844227399767</v>
+        <v>0.006673844227399768</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.004050611111155098</v>
+        <v>0.003924484816732451</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01099473532780593</v>
+        <v>0.01087413458338676</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>20</v>
@@ -2178,19 +2178,19 @@
         <v>16391</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>9639</v>
+        <v>9675</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>26572</v>
+        <v>25879</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.004404995596642639</v>
+        <v>0.004404995596642638</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.002590309959961609</v>
+        <v>0.002600195977003047</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.007140926206840433</v>
+        <v>0.006954886041451393</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>37</v>
@@ -2199,19 +2199,19 @@
         <v>39869</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>27690</v>
+        <v>27302</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>56557</v>
+        <v>58234</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.005507574790222228</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.003825221590332825</v>
+        <v>0.003771574210157308</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.007812967863941063</v>
+        <v>0.008044622648006027</v>
       </c>
     </row>
     <row r="25">
@@ -2228,19 +2228,19 @@
         <v>8395</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3351</v>
+        <v>2924</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>19583</v>
+        <v>18612</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.002386474343462045</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0009525722017948595</v>
+        <v>0.0008312015107086368</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.005566741255176331</v>
+        <v>0.00529076351671458</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -2249,19 +2249,19 @@
         <v>4340</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1447</v>
+        <v>1397</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10078</v>
+        <v>10870</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.001166373671045496</v>
+        <v>0.001166373671045495</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0003889827613339045</v>
+        <v>0.0003755443514940927</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.002708310924934413</v>
+        <v>0.002921101503624913</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>11</v>
@@ -2270,19 +2270,19 @@
         <v>12735</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6728</v>
+        <v>6440</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>23557</v>
+        <v>24326</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.001759298909530901</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0009294050782407871</v>
+        <v>0.000889670587111335</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.003254227732462748</v>
+        <v>0.003360477272319137</v>
       </c>
     </row>
     <row r="26">
@@ -2299,19 +2299,19 @@
         <v>4971</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1878</v>
+        <v>1884</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>13092</v>
+        <v>13103</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.001413039427611679</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0005337342196137384</v>
+        <v>0.0005355522978741888</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.003721698649391311</v>
+        <v>0.00372458718965823</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>17</v>
@@ -2320,19 +2320,19 @@
         <v>15584</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8957</v>
+        <v>9386</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>25052</v>
+        <v>25008</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.004188150884560178</v>
+        <v>0.004188150884560176</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002407224644095308</v>
+        <v>0.002522500461680992</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0067326324852038</v>
+        <v>0.006720576697062754</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>22</v>
@@ -2341,19 +2341,19 @@
         <v>20555</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>13099</v>
+        <v>12505</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>31824</v>
+        <v>30881</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.002839546085272755</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.001809557742722657</v>
+        <v>0.001727439822360971</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.00439621257910919</v>
+        <v>0.004266037454139198</v>
       </c>
     </row>
     <row r="27">
